--- a/configFile.xlsx
+++ b/configFile.xlsx
@@ -478,8 +478,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>4</v>
+      <c r="A2" t="str">
+        <v>00:29:50</v>
       </c>
       <c r="B2">
         <v>20</v>

--- a/configFile.xlsx
+++ b/configFile.xlsx
@@ -561,10 +561,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>[]</v>
+        <v>[{"lat":-27.48727417937376,"lng":-51.52006698495441,"unload":0,"start":0,"end":0,"manual":0},{"lat":-27.33610585642091,"lng":-51.01194930917316,"unload":0,"start":0,"end":0,"manual":0}]</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/configFile.xlsx
+++ b/configFile.xlsx
@@ -561,10 +561,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>[{"lat":-27.48727417937376,"lng":-51.52006698495441,"unload":0,"start":0,"end":0,"manual":0},{"lat":-27.33610585642091,"lng":-51.01194930917316,"unload":0,"start":0,"end":0,"manual":0}]</v>
+        <v>[]</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -583,10 +583,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>[]</v>
+        <v>[{"lat":-27.028257508756287,"lng":-52.452531584563786,"radius":5000}]</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/configFile.xlsx
+++ b/configFile.xlsx
@@ -494,7 +494,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +583,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>[{"lat":-27.028257508756287,"lng":-52.452531584563786,"radius":5000}]</v>
+        <v>[{"lat":-27.162740204564106,"lng":-52.309709318938786,"radius":5000}]</v>
       </c>
       <c r="B1">
         <v>1</v>
